--- a/SuppXLS/Scen_RES_RestrictHeatSav.xlsx
+++ b/SuppXLS/Scen_RES_RestrictHeatSav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\TIMES-DK_COMETS_new\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DF4910-4158-448E-A8BF-29E31FD37130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F9EF8-A380-4C07-8A75-57BCCE1D0650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2880" windowWidth="21555" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16008" yWindow="1212" windowWidth="21012" windowHeight="14256" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="17" r:id="rId1"/>
@@ -22,7 +22,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2412,16 +2415,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>60</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>43144</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>42991</v>
       </c>
@@ -2489,24 +2492,24 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D1" s="7">
         <v>0.05</v>
       </c>
@@ -2514,31 +2517,31 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>71</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -2623,7 +2626,7 @@
       </c>
       <c r="M9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>69</v>
       </c>
@@ -2637,10 +2640,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2661,7 +2664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" s="3" t="s">
         <v>0</v>
@@ -2712,7 +2715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>74</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -2770,7 +2773,7 @@
       </c>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2792,20 +2795,20 @@
       </c>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -2826,26 +2829,26 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2855,7 +2858,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>15</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
@@ -3395,7 +3398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>15</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>15</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
@@ -3555,7 +3558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
